--- a/Dataset/test_qa.xlsx
+++ b/Dataset/test_qa.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>test_id</t>
   </si>
   <si>
-    <t>question_id</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -88,39 +85,9 @@
     <t>What is Python?</t>
   </si>
   <si>
-    <t>How do you open a file named "example.txt" in Python for reading?</t>
-  </si>
-  <si>
     <t>What is the purpose of the `if` statement in Python?</t>
   </si>
   <si>
-    <t>file = open("example.txt", "w")</t>
-  </si>
-  <si>
-    <t>file = open("example.txt", "r")</t>
-  </si>
-  <si>
-    <t>file = read_file("example.txt")</t>
-  </si>
-  <si>
-    <t>file = read("example.txt")</t>
-  </si>
-  <si>
-    <t>What is the purpose of the `len()` function in Python?</t>
-  </si>
-  <si>
-    <t>To find the length of a list or string</t>
-  </si>
-  <si>
-    <t>To calculate logarithms</t>
-  </si>
-  <si>
-    <t>To define a variable</t>
-  </si>
-  <si>
-    <t>To create a loop</t>
-  </si>
-  <si>
     <t>FETCH</t>
   </si>
   <si>
@@ -142,60 +109,30 @@
     <t>What SQL statement is used to insert new records into a table?</t>
   </si>
   <si>
-    <t>In SQL, what does the acronym "PK" stand for?</t>
-  </si>
-  <si>
-    <t>How do you delete all records from a table in SQL without deleting the table itself?</t>
-  </si>
-  <si>
     <t>GROUP BY</t>
   </si>
   <si>
     <t>ADD</t>
   </si>
   <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
     <t>FILTER</t>
   </si>
   <si>
     <t>INSERT INTO</t>
   </si>
   <si>
-    <t>Previous Key</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
     <t>WHERE</t>
   </si>
   <si>
     <t>UPDATE</t>
   </si>
   <si>
-    <t>Primary Keyword</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>HAVING</t>
   </si>
   <si>
     <t>MODIFY</t>
   </si>
   <si>
-    <t>Primary Column</t>
-  </si>
-  <si>
-    <t>DROP</t>
-  </si>
-  <si>
     <t>sql</t>
   </si>
   <si>
@@ -208,12 +145,6 @@
     <t>What does the term "feature" refer to in machine learning?</t>
   </si>
   <si>
-    <t>What does the term "recall" refer to in machine learning?</t>
-  </si>
-  <si>
-    <t>Which type of machine learning algorithm is used for categorizing data into groups or classes?</t>
-  </si>
-  <si>
     <t>A type of robot</t>
   </si>
   <si>
@@ -223,9 +154,6 @@
     <t>The correctness of predictions</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
     <t>A way for computers to learn from data</t>
   </si>
   <si>
@@ -253,28 +181,13 @@
     <t>The input variables or attributes used to make predictions</t>
   </si>
   <si>
-    <t>To measure the correctness of predictions</t>
-  </si>
-  <si>
-    <t>To evaluate the complexity of the model</t>
-  </si>
-  <si>
-    <t>To quantify the amount of data used</t>
-  </si>
-  <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Association</t>
-  </si>
-  <si>
     <t>machine learning</t>
   </si>
   <si>
     <t>concept</t>
+  </si>
+  <si>
+    <t>question_no</t>
   </si>
 </sst>
 </file>
@@ -651,17 +564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" style="1" customWidth="1"/>
     <col min="5" max="9" width="21.42578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -672,463 +585,289 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
         <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
         <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
